--- a/Q_issues_dec22_JAA.xlsx
+++ b/Q_issues_dec22_JAA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\University of Alaska\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen Jorgenson\Documents\Github\DoD_Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756EEA2-1108-4CAF-A181-4CC618FD1319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19380" windowHeight="12465"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="17250" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Site</t>
   </si>
@@ -213,12 +204,18 @@
   </si>
   <si>
     <t>Breakdown day on 9/21/2015.  No times listed</t>
+  </si>
+  <si>
+    <t>Karen notes</t>
+  </si>
+  <si>
+    <t>Water level data ends at 2021-09-28 02:30:00 before clipping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -568,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,7 +582,7 @@
     <col min="11" max="11" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +604,11 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -628,7 +628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -688,7 +688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -751,7 +751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -797,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -820,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -888,8 +888,11 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -906,7 +909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -929,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
